--- a/natmiOut/OldD2/LR-pairs_lrc2p/Thbs1-Itga2b.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Thbs1-Itga2b.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H2">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I2">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J2">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.23350848901254</v>
+        <v>1.2502825</v>
       </c>
       <c r="N2">
-        <v>1.23350848901254</v>
+        <v>2.500565</v>
       </c>
       <c r="O2">
-        <v>0.1776311535561341</v>
+        <v>0.1638687485091313</v>
       </c>
       <c r="P2">
-        <v>0.1776311535561341</v>
+        <v>0.1262743888059313</v>
       </c>
       <c r="Q2">
-        <v>37.99639214144484</v>
+        <v>39.565792348665</v>
       </c>
       <c r="R2">
-        <v>37.99639214144484</v>
+        <v>158.26316939466</v>
       </c>
       <c r="S2">
-        <v>0.007324762203495818</v>
+        <v>0.005827141114071213</v>
       </c>
       <c r="T2">
-        <v>0.007324762203495818</v>
+        <v>0.003091779683353926</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H3">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I3">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J3">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.39814381453573</v>
+        <v>2.596814</v>
       </c>
       <c r="N3">
-        <v>2.39814381453573</v>
+        <v>7.790442000000001</v>
       </c>
       <c r="O3">
-        <v>0.3453442404036498</v>
+        <v>0.3403524085884521</v>
       </c>
       <c r="P3">
-        <v>0.3453442404036498</v>
+        <v>0.3934044114342388</v>
       </c>
       <c r="Q3">
-        <v>73.87124904314592</v>
+        <v>82.177430694348</v>
       </c>
       <c r="R3">
-        <v>73.87124904314592</v>
+        <v>493.064584166088</v>
       </c>
       <c r="S3">
-        <v>0.01424054502074855</v>
+        <v>0.01210286605226876</v>
       </c>
       <c r="T3">
-        <v>0.01424054502074855</v>
+        <v>0.00963235520770191</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H4">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I4">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J4">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.257221095370029</v>
+        <v>0.2737596666666667</v>
       </c>
       <c r="N4">
-        <v>0.257221095370029</v>
+        <v>0.821279</v>
       </c>
       <c r="O4">
-        <v>0.03704107454187625</v>
+        <v>0.03588041420154535</v>
       </c>
       <c r="P4">
-        <v>0.03704107454187625</v>
+        <v>0.04147322855600493</v>
       </c>
       <c r="Q4">
-        <v>7.92331280553696</v>
+        <v>8.663256603826001</v>
       </c>
       <c r="R4">
-        <v>7.92331280553696</v>
+        <v>51.979539622956</v>
       </c>
       <c r="S4">
-        <v>0.001527418233510858</v>
+        <v>0.001275900613667522</v>
       </c>
       <c r="T4">
-        <v>0.001527418233510858</v>
+        <v>0.00101545599757064</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H5">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I5">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J5">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7880847145882049</v>
+        <v>0.7929023333333333</v>
       </c>
       <c r="N5">
-        <v>0.7880847145882049</v>
+        <v>2.378707</v>
       </c>
       <c r="O5">
-        <v>0.1134879882864239</v>
+        <v>0.103922044060685</v>
       </c>
       <c r="P5">
-        <v>0.1134879882864239</v>
+        <v>0.1201207617372036</v>
       </c>
       <c r="Q5">
-        <v>24.27577606712981</v>
+        <v>25.091776517258</v>
       </c>
       <c r="R5">
-        <v>24.27577606712981</v>
+        <v>150.550659103548</v>
       </c>
       <c r="S5">
-        <v>0.004679767656231985</v>
+        <v>0.003695447857591915</v>
       </c>
       <c r="T5">
-        <v>0.004679767656231985</v>
+        <v>0.002941110499127904</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H6">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I6">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J6">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.845425387288616</v>
+        <v>0.879594</v>
       </c>
       <c r="N6">
-        <v>0.845425387288616</v>
+        <v>2.638782</v>
       </c>
       <c r="O6">
-        <v>0.1217453208692037</v>
+        <v>0.1152843201245645</v>
       </c>
       <c r="P6">
-        <v>0.1217453208692037</v>
+        <v>0.1332541182661091</v>
       </c>
       <c r="Q6">
-        <v>26.04207010157395</v>
+        <v>27.835176094308</v>
       </c>
       <c r="R6">
-        <v>26.04207010157395</v>
+        <v>167.011056565848</v>
       </c>
       <c r="S6">
-        <v>0.005020265347054708</v>
+        <v>0.004099488204538058</v>
       </c>
       <c r="T6">
-        <v>0.005020265347054708</v>
+        <v>0.003262675665859531</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H7">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I7">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J7">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.42182906731576</v>
+        <v>1.8364275</v>
       </c>
       <c r="N7">
-        <v>1.42182906731576</v>
+        <v>3.672855</v>
       </c>
       <c r="O7">
-        <v>0.2047502223427123</v>
+        <v>0.2406920645156217</v>
       </c>
       <c r="P7">
-        <v>0.2047502223427123</v>
+        <v>0.1854730912005122</v>
       </c>
       <c r="Q7">
-        <v>43.79732712101763</v>
+        <v>58.114633395555</v>
       </c>
       <c r="R7">
-        <v>43.79732712101763</v>
+        <v>232.45853358222</v>
       </c>
       <c r="S7">
-        <v>0.008443038621034016</v>
+        <v>0.008558963424874787</v>
       </c>
       <c r="T7">
-        <v>0.008443038621034016</v>
+        <v>0.004541237067984588</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H8">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I8">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J8">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.23350848901254</v>
+        <v>1.2502825</v>
       </c>
       <c r="N8">
-        <v>1.23350848901254</v>
+        <v>2.500565</v>
       </c>
       <c r="O8">
-        <v>0.1776311535561341</v>
+        <v>0.1638687485091313</v>
       </c>
       <c r="P8">
-        <v>0.1776311535561341</v>
+        <v>0.1262743888059313</v>
       </c>
       <c r="Q8">
-        <v>93.41245785913478</v>
+        <v>104.0578163361692</v>
       </c>
       <c r="R8">
-        <v>93.41245785913478</v>
+        <v>624.346898017015</v>
       </c>
       <c r="S8">
-        <v>0.01800760551462764</v>
+        <v>0.01532534909119346</v>
       </c>
       <c r="T8">
-        <v>0.01800760551462764</v>
+        <v>0.01219704535197552</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H9">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I9">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J9">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.39814381453573</v>
+        <v>2.596814</v>
       </c>
       <c r="N9">
-        <v>2.39814381453573</v>
+        <v>7.790442000000001</v>
       </c>
       <c r="O9">
-        <v>0.3453442404036498</v>
+        <v>0.3403524085884521</v>
       </c>
       <c r="P9">
-        <v>0.3453442404036498</v>
+        <v>0.3934044114342388</v>
       </c>
       <c r="Q9">
-        <v>181.6092147000913</v>
+        <v>216.1261908978114</v>
       </c>
       <c r="R9">
-        <v>181.6092147000913</v>
+        <v>1945.135718080302</v>
       </c>
       <c r="S9">
-        <v>0.03500975320735286</v>
+        <v>0.03183047117343357</v>
       </c>
       <c r="T9">
-        <v>0.03500975320735286</v>
+        <v>0.03799956185339509</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H10">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I10">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J10">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.257221095370029</v>
+        <v>0.2737596666666667</v>
       </c>
       <c r="N10">
-        <v>0.257221095370029</v>
+        <v>0.821279</v>
       </c>
       <c r="O10">
-        <v>0.03704107454187625</v>
+        <v>0.03588041420154535</v>
       </c>
       <c r="P10">
-        <v>0.03704107454187625</v>
+        <v>0.04147322855600493</v>
       </c>
       <c r="Q10">
-        <v>19.47911582754341</v>
+        <v>22.78431723570545</v>
       </c>
       <c r="R10">
-        <v>19.47911582754341</v>
+        <v>205.058855121349</v>
       </c>
       <c r="S10">
-        <v>0.00375509050543454</v>
+        <v>0.003355611598783015</v>
       </c>
       <c r="T10">
-        <v>0.00375509050543454</v>
+        <v>0.004005965535638987</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H11">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I11">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J11">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7880847145882049</v>
+        <v>0.7929023333333333</v>
       </c>
       <c r="N11">
-        <v>0.7880847145882049</v>
+        <v>2.378707</v>
       </c>
       <c r="O11">
-        <v>0.1134879882864239</v>
+        <v>0.103922044060685</v>
       </c>
       <c r="P11">
-        <v>0.1134879882864239</v>
+        <v>0.1201207617372036</v>
       </c>
       <c r="Q11">
-        <v>59.68092708452414</v>
+        <v>65.99123428066855</v>
       </c>
       <c r="R11">
-        <v>59.68092708452414</v>
+        <v>593.921108526017</v>
       </c>
       <c r="S11">
-        <v>0.01150500282634701</v>
+        <v>0.009719007547138486</v>
       </c>
       <c r="T11">
-        <v>0.01150500282634701</v>
+        <v>0.01160265666281886</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H12">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I12">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J12">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.845425387288616</v>
+        <v>0.879594</v>
       </c>
       <c r="N12">
-        <v>0.845425387288616</v>
+        <v>2.638782</v>
       </c>
       <c r="O12">
-        <v>0.1217453208692037</v>
+        <v>0.1152843201245645</v>
       </c>
       <c r="P12">
-        <v>0.1217453208692037</v>
+        <v>0.1332541182661091</v>
       </c>
       <c r="Q12">
-        <v>64.02328323363301</v>
+        <v>73.20636008453801</v>
       </c>
       <c r="R12">
-        <v>64.02328323363301</v>
+        <v>658.857240760842</v>
       </c>
       <c r="S12">
-        <v>0.01234210141393677</v>
+        <v>0.01078163143811036</v>
       </c>
       <c r="T12">
-        <v>0.01234210141393677</v>
+        <v>0.01287122859352853</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H13">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I13">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J13">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.42182906731576</v>
+        <v>1.8364275</v>
       </c>
       <c r="N13">
-        <v>1.42182906731576</v>
+        <v>3.672855</v>
       </c>
       <c r="O13">
-        <v>0.2047502223427123</v>
+        <v>0.2406920645156217</v>
       </c>
       <c r="P13">
-        <v>0.2047502223427123</v>
+        <v>0.1854730912005122</v>
       </c>
       <c r="Q13">
-        <v>107.6738012073593</v>
+        <v>152.8411663041675</v>
       </c>
       <c r="R13">
-        <v>107.6738012073593</v>
+        <v>917.046997825005</v>
       </c>
       <c r="S13">
-        <v>0.02075683887181813</v>
+        <v>0.02251002674848899</v>
       </c>
       <c r="T13">
-        <v>0.02075683887181813</v>
+        <v>0.01791514278022369</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H14">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I14">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J14">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.23350848901254</v>
+        <v>1.2502825</v>
       </c>
       <c r="N14">
-        <v>1.23350848901254</v>
+        <v>2.500565</v>
       </c>
       <c r="O14">
-        <v>0.1776311535561341</v>
+        <v>0.1638687485091313</v>
       </c>
       <c r="P14">
-        <v>0.1776311535561341</v>
+        <v>0.1262743888059313</v>
       </c>
       <c r="Q14">
-        <v>488.1909441927551</v>
+        <v>655.8693042211424</v>
       </c>
       <c r="R14">
-        <v>488.1909441927551</v>
+        <v>3935.215825326854</v>
       </c>
       <c r="S14">
-        <v>0.09411110830734923</v>
+        <v>0.09659462786452329</v>
       </c>
       <c r="T14">
-        <v>0.09411110830734923</v>
+        <v>0.07687714320959974</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H15">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I15">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J15">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.39814381453573</v>
+        <v>2.596814</v>
       </c>
       <c r="N15">
-        <v>2.39814381453573</v>
+        <v>7.790442000000001</v>
       </c>
       <c r="O15">
-        <v>0.3453442404036498</v>
+        <v>0.3403524085884521</v>
       </c>
       <c r="P15">
-        <v>0.3453442404036498</v>
+        <v>0.3934044114342388</v>
       </c>
       <c r="Q15">
-        <v>949.1236611313759</v>
+        <v>1362.228609431646</v>
       </c>
       <c r="R15">
-        <v>949.1236611313759</v>
+        <v>12260.05748488481</v>
       </c>
       <c r="S15">
-        <v>0.1829675063258339</v>
+        <v>0.2006252842564654</v>
       </c>
       <c r="T15">
-        <v>0.1829675063258339</v>
+        <v>0.2395086411671285</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H16">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I16">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J16">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.257221095370029</v>
+        <v>0.2737596666666667</v>
       </c>
       <c r="N16">
-        <v>0.257221095370029</v>
+        <v>0.821279</v>
       </c>
       <c r="O16">
-        <v>0.03704107454187625</v>
+        <v>0.03588041420154535</v>
       </c>
       <c r="P16">
-        <v>0.03704107454187625</v>
+        <v>0.04147322855600493</v>
       </c>
       <c r="Q16">
-        <v>101.8014959228323</v>
+        <v>143.607994273677</v>
       </c>
       <c r="R16">
-        <v>101.8014959228323</v>
+        <v>1292.471948463093</v>
       </c>
       <c r="S16">
-        <v>0.01962480402926332</v>
+        <v>0.02115019055772004</v>
       </c>
       <c r="T16">
-        <v>0.01962480402926332</v>
+        <v>0.02524932697131922</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H17">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I17">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J17">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.7880847145882049</v>
+        <v>0.7929023333333333</v>
       </c>
       <c r="N17">
-        <v>0.7880847145882049</v>
+        <v>2.378707</v>
       </c>
       <c r="O17">
-        <v>0.1134879882864239</v>
+        <v>0.103922044060685</v>
       </c>
       <c r="P17">
-        <v>0.1134879882864239</v>
+        <v>0.1201207617372036</v>
       </c>
       <c r="Q17">
-        <v>311.9036669351875</v>
+        <v>415.9382393008409</v>
       </c>
       <c r="R17">
-        <v>311.9036669351875</v>
+        <v>3743.444153707569</v>
       </c>
       <c r="S17">
-        <v>0.06012729267015442</v>
+        <v>0.06125824029468982</v>
       </c>
       <c r="T17">
-        <v>0.06012729267015442</v>
+        <v>0.0731307519271354</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H18">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I18">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J18">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.845425387288616</v>
+        <v>0.879594</v>
       </c>
       <c r="N18">
-        <v>0.845425387288616</v>
+        <v>2.638782</v>
       </c>
       <c r="O18">
-        <v>0.1217453208692037</v>
+        <v>0.1152843201245645</v>
       </c>
       <c r="P18">
-        <v>0.1217453208692037</v>
+        <v>0.1332541182661091</v>
       </c>
       <c r="Q18">
-        <v>334.5976308564823</v>
+        <v>461.414684103066</v>
       </c>
       <c r="R18">
-        <v>334.5976308564823</v>
+        <v>4152.732156927594</v>
       </c>
       <c r="S18">
-        <v>0.06450212616906664</v>
+        <v>0.06795588605124642</v>
       </c>
       <c r="T18">
-        <v>0.06450212616906664</v>
+        <v>0.08112647410201854</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H19">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I19">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J19">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.42182906731576</v>
+        <v>1.8364275</v>
       </c>
       <c r="N19">
-        <v>1.42182906731576</v>
+        <v>3.672855</v>
       </c>
       <c r="O19">
-        <v>0.2047502223427123</v>
+        <v>0.2406920645156217</v>
       </c>
       <c r="P19">
-        <v>0.2047502223427123</v>
+        <v>0.1854730912005122</v>
       </c>
       <c r="Q19">
-        <v>562.7233870188053</v>
+        <v>963.3474248240473</v>
       </c>
       <c r="R19">
-        <v>562.7233870188053</v>
+        <v>5780.084548944284</v>
       </c>
       <c r="S19">
-        <v>0.1084791150937353</v>
+        <v>0.1418791600799634</v>
       </c>
       <c r="T19">
-        <v>0.1084791150937353</v>
+        <v>0.1129179204792095</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H20">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I20">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J20">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.23350848901254</v>
+        <v>1.2502825</v>
       </c>
       <c r="N20">
-        <v>1.23350848901254</v>
+        <v>2.500565</v>
       </c>
       <c r="O20">
-        <v>0.1776311535561341</v>
+        <v>0.1638687485091313</v>
       </c>
       <c r="P20">
-        <v>0.1776311535561341</v>
+        <v>0.1262743888059313</v>
       </c>
       <c r="Q20">
-        <v>218.9837103478215</v>
+        <v>226.9029413947458</v>
       </c>
       <c r="R20">
-        <v>218.9837103478215</v>
+        <v>1361.417648368475</v>
       </c>
       <c r="S20">
-        <v>0.04221462918810705</v>
+        <v>0.03341764135679255</v>
       </c>
       <c r="T20">
-        <v>0.04221462918810705</v>
+        <v>0.02659622855958774</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H21">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I21">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J21">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.39814381453573</v>
+        <v>2.596814</v>
       </c>
       <c r="N21">
-        <v>2.39814381453573</v>
+        <v>7.790442000000001</v>
       </c>
       <c r="O21">
-        <v>0.3453442404036498</v>
+        <v>0.3403524085884521</v>
       </c>
       <c r="P21">
-        <v>0.3453442404036498</v>
+        <v>0.3934044114342388</v>
       </c>
       <c r="Q21">
-        <v>425.7404267036002</v>
+        <v>471.2732801227366</v>
       </c>
       <c r="R21">
-        <v>425.7404267036002</v>
+        <v>4241.45952110463</v>
       </c>
       <c r="S21">
-        <v>0.08207219712887538</v>
+        <v>0.06940783296758765</v>
       </c>
       <c r="T21">
-        <v>0.08207219712887538</v>
+        <v>0.08285982408464163</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H22">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I22">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J22">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.257221095370029</v>
+        <v>0.2737596666666667</v>
       </c>
       <c r="N22">
-        <v>0.257221095370029</v>
+        <v>0.821279</v>
       </c>
       <c r="O22">
-        <v>0.03704107454187625</v>
+        <v>0.03588041420154535</v>
       </c>
       <c r="P22">
-        <v>0.03704107454187625</v>
+        <v>0.04147322855600493</v>
       </c>
       <c r="Q22">
-        <v>45.66424175074093</v>
+        <v>49.68227068835388</v>
       </c>
       <c r="R22">
-        <v>45.66424175074093</v>
+        <v>447.1404361951849</v>
       </c>
       <c r="S22">
-        <v>0.008802933467524846</v>
+        <v>0.007317068229477534</v>
       </c>
       <c r="T22">
-        <v>0.008802933467524846</v>
+        <v>0.008735195443905542</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H23">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I23">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J23">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.7880847145882049</v>
+        <v>0.7929023333333333</v>
       </c>
       <c r="N23">
-        <v>0.7880847145882049</v>
+        <v>2.378707</v>
       </c>
       <c r="O23">
-        <v>0.1134879882864239</v>
+        <v>0.103922044060685</v>
       </c>
       <c r="P23">
-        <v>0.1134879882864239</v>
+        <v>0.1201207617372036</v>
       </c>
       <c r="Q23">
-        <v>139.9080074488037</v>
+        <v>143.8969766209561</v>
       </c>
       <c r="R23">
-        <v>139.9080074488037</v>
+        <v>1295.072789588605</v>
       </c>
       <c r="S23">
-        <v>0.02697079451945144</v>
+        <v>0.02119275108329302</v>
       </c>
       <c r="T23">
-        <v>0.02697079451945144</v>
+        <v>0.0253001361885379</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H24">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I24">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J24">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.845425387288616</v>
+        <v>0.879594</v>
       </c>
       <c r="N24">
-        <v>0.845425387288616</v>
+        <v>2.638782</v>
       </c>
       <c r="O24">
-        <v>0.1217453208692037</v>
+        <v>0.1152843201245645</v>
       </c>
       <c r="P24">
-        <v>0.1217453208692037</v>
+        <v>0.1332541182661091</v>
       </c>
       <c r="Q24">
-        <v>150.0876481838488</v>
+        <v>159.62989630997</v>
       </c>
       <c r="R24">
-        <v>150.0876481838488</v>
+        <v>1436.66906678973</v>
       </c>
       <c r="S24">
-        <v>0.02893317682732047</v>
+        <v>0.02350985223866333</v>
       </c>
       <c r="T24">
-        <v>0.02893317682732047</v>
+        <v>0.02806631668879876</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H25">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I25">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J25">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.42182906731576</v>
+        <v>1.8364275</v>
       </c>
       <c r="N25">
-        <v>1.42182906731576</v>
+        <v>3.672855</v>
       </c>
       <c r="O25">
-        <v>0.2047502223427123</v>
+        <v>0.2406920645156217</v>
       </c>
       <c r="P25">
-        <v>0.2047502223427123</v>
+        <v>0.1854730912005122</v>
       </c>
       <c r="Q25">
-        <v>252.4161020492355</v>
+        <v>333.2773204521374</v>
       </c>
       <c r="R25">
-        <v>252.4161020492355</v>
+        <v>1999.663922712825</v>
       </c>
       <c r="S25">
-        <v>0.04865956528086505</v>
+        <v>0.04908416743636031</v>
       </c>
       <c r="T25">
-        <v>0.04865956528086505</v>
+        <v>0.03906480777193339</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H26">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I26">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J26">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.23350848901254</v>
+        <v>1.2502825</v>
       </c>
       <c r="N26">
-        <v>1.23350848901254</v>
+        <v>2.500565</v>
       </c>
       <c r="O26">
-        <v>0.1776311535561341</v>
+        <v>0.1638687485091313</v>
       </c>
       <c r="P26">
-        <v>0.1776311535561341</v>
+        <v>0.1262743888059313</v>
       </c>
       <c r="Q26">
-        <v>18.89781125888199</v>
+        <v>19.75043050541583</v>
       </c>
       <c r="R26">
-        <v>18.89781125888199</v>
+        <v>118.502583032495</v>
       </c>
       <c r="S26">
-        <v>0.003643029399280036</v>
+        <v>0.002908789102579367</v>
       </c>
       <c r="T26">
-        <v>0.003643029399280036</v>
+        <v>0.002315029327709091</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H27">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I27">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J27">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.39814381453573</v>
+        <v>2.596814</v>
       </c>
       <c r="N27">
-        <v>2.39814381453573</v>
+        <v>7.790442000000001</v>
       </c>
       <c r="O27">
-        <v>0.3453442404036498</v>
+        <v>0.3403524085884521</v>
       </c>
       <c r="P27">
-        <v>0.3453442404036498</v>
+        <v>0.3934044114342388</v>
       </c>
       <c r="Q27">
-        <v>36.74045990152143</v>
+        <v>41.02128474364067</v>
       </c>
       <c r="R27">
-        <v>36.74045990152143</v>
+        <v>369.1915626927661</v>
       </c>
       <c r="S27">
-        <v>0.007082649611150279</v>
+        <v>0.006041502032241144</v>
       </c>
       <c r="T27">
-        <v>0.007082649611150279</v>
+        <v>0.007212410677513548</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H28">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I28">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J28">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.257221095370029</v>
+        <v>0.2737596666666667</v>
       </c>
       <c r="N28">
-        <v>0.257221095370029</v>
+        <v>0.821279</v>
       </c>
       <c r="O28">
-        <v>0.03704107454187625</v>
+        <v>0.03588041420154535</v>
       </c>
       <c r="P28">
-        <v>0.03704107454187625</v>
+        <v>0.04147322855600493</v>
       </c>
       <c r="Q28">
-        <v>3.940723355699804</v>
+        <v>4.324519675901889</v>
       </c>
       <c r="R28">
-        <v>3.940723355699804</v>
+        <v>38.920677083117</v>
       </c>
       <c r="S28">
-        <v>0.0007596737443600223</v>
+        <v>0.0006369033679394538</v>
       </c>
       <c r="T28">
-        <v>0.0007596737443600223</v>
+        <v>0.000760342151166474</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H29">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I29">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J29">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.7880847145882049</v>
+        <v>0.7929023333333333</v>
       </c>
       <c r="N29">
-        <v>0.7880847145882049</v>
+        <v>2.378707</v>
       </c>
       <c r="O29">
-        <v>0.1134879882864239</v>
+        <v>0.103922044060685</v>
       </c>
       <c r="P29">
-        <v>0.1134879882864239</v>
+        <v>0.1201207617372036</v>
       </c>
       <c r="Q29">
-        <v>12.0737524913348</v>
+        <v>12.52529922804011</v>
       </c>
       <c r="R29">
-        <v>12.0737524913348</v>
+        <v>112.727693052361</v>
       </c>
       <c r="S29">
-        <v>0.002327520085951236</v>
+        <v>0.001844691632978749</v>
       </c>
       <c r="T29">
-        <v>0.002327520085951236</v>
+        <v>0.002202212886698369</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H30">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I30">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J30">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.845425387288616</v>
+        <v>0.879594</v>
       </c>
       <c r="N30">
-        <v>0.845425387288616</v>
+        <v>2.638782</v>
       </c>
       <c r="O30">
-        <v>0.1217453208692037</v>
+        <v>0.1152843201245645</v>
       </c>
       <c r="P30">
-        <v>0.1217453208692037</v>
+        <v>0.1332541182661091</v>
       </c>
       <c r="Q30">
-        <v>12.95223303670758</v>
+        <v>13.894747922954</v>
       </c>
       <c r="R30">
-        <v>12.95223303670758</v>
+        <v>125.052731306586</v>
       </c>
       <c r="S30">
-        <v>0.002496869351305152</v>
+        <v>0.002046380271573981</v>
       </c>
       <c r="T30">
-        <v>0.002496869351305152</v>
+        <v>0.00244299097181271</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H31">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I31">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J31">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.42182906731576</v>
+        <v>1.8364275</v>
       </c>
       <c r="N31">
-        <v>1.42182906731576</v>
+        <v>3.672855</v>
       </c>
       <c r="O31">
-        <v>0.2047502223427123</v>
+        <v>0.2406920645156217</v>
       </c>
       <c r="P31">
-        <v>0.2047502223427123</v>
+        <v>0.1854730912005122</v>
       </c>
       <c r="Q31">
-        <v>21.78295293130511</v>
+        <v>29.0096307970275</v>
       </c>
       <c r="R31">
-        <v>21.78295293130511</v>
+        <v>174.057784782165</v>
       </c>
       <c r="S31">
-        <v>0.004199213170497742</v>
+        <v>0.004272458664083574</v>
       </c>
       <c r="T31">
-        <v>0.004199213170497742</v>
+        <v>0.003400338340104325</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H32">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I32">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J32">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.23350848901254</v>
+        <v>1.2502825</v>
       </c>
       <c r="N32">
-        <v>1.23350848901254</v>
+        <v>2.500565</v>
       </c>
       <c r="O32">
-        <v>0.1776311535561341</v>
+        <v>0.1638687485091313</v>
       </c>
       <c r="P32">
-        <v>0.1776311535561341</v>
+        <v>0.1262743888059313</v>
       </c>
       <c r="Q32">
-        <v>63.9606067561485</v>
+        <v>66.50857441659375</v>
       </c>
       <c r="R32">
-        <v>63.9606067561485</v>
+        <v>266.034297666375</v>
       </c>
       <c r="S32">
-        <v>0.01233001894327436</v>
+        <v>0.009795199979971456</v>
       </c>
       <c r="T32">
-        <v>0.01233001894327436</v>
+        <v>0.005197162673705318</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H33">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I33">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J33">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>2.39814381453573</v>
+        <v>2.596814</v>
       </c>
       <c r="N33">
-        <v>2.39814381453573</v>
+        <v>7.790442000000001</v>
       </c>
       <c r="O33">
-        <v>0.3453442404036498</v>
+        <v>0.3403524085884521</v>
       </c>
       <c r="P33">
-        <v>0.3453442404036498</v>
+        <v>0.3934044114342388</v>
       </c>
       <c r="Q33">
-        <v>124.3499617817794</v>
+        <v>138.137098747725</v>
       </c>
       <c r="R33">
-        <v>124.3499617817794</v>
+        <v>828.82259248635</v>
       </c>
       <c r="S33">
-        <v>0.02397158910968887</v>
+        <v>0.02034445210645562</v>
       </c>
       <c r="T33">
-        <v>0.02397158910968887</v>
+        <v>0.01619161844385817</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H34">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I34">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J34">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.257221095370029</v>
+        <v>0.2737596666666667</v>
       </c>
       <c r="N34">
-        <v>0.257221095370029</v>
+        <v>0.821279</v>
       </c>
       <c r="O34">
-        <v>0.03704107454187625</v>
+        <v>0.03588041420154535</v>
       </c>
       <c r="P34">
-        <v>0.03704107454187625</v>
+        <v>0.04147322855600493</v>
       </c>
       <c r="Q34">
-        <v>13.33757933317388</v>
+        <v>14.5626009823875</v>
       </c>
       <c r="R34">
-        <v>13.33757933317388</v>
+        <v>87.37560589432499</v>
       </c>
       <c r="S34">
-        <v>0.002571154561782667</v>
+        <v>0.002144739833957786</v>
       </c>
       <c r="T34">
-        <v>0.002571154561782667</v>
+        <v>0.001706942456404064</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H35">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I35">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J35">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.7880847145882049</v>
+        <v>0.7929023333333333</v>
       </c>
       <c r="N35">
-        <v>0.7880847145882049</v>
+        <v>2.378707</v>
       </c>
       <c r="O35">
-        <v>0.1134879882864239</v>
+        <v>0.103922044060685</v>
       </c>
       <c r="P35">
-        <v>0.1134879882864239</v>
+        <v>0.1201207617372036</v>
       </c>
       <c r="Q35">
-        <v>40.86423155519545</v>
+        <v>42.1783107750375</v>
       </c>
       <c r="R35">
-        <v>40.86423155519545</v>
+        <v>253.069864650225</v>
       </c>
       <c r="S35">
-        <v>0.007877610528287775</v>
+        <v>0.006211905644993021</v>
       </c>
       <c r="T35">
-        <v>0.007877610528287775</v>
+        <v>0.004943893572885149</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H36">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I36">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J36">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.845425387288616</v>
+        <v>0.879594</v>
       </c>
       <c r="N36">
-        <v>0.845425387288616</v>
+        <v>2.638782</v>
       </c>
       <c r="O36">
-        <v>0.1217453208692037</v>
+        <v>0.1152843201245645</v>
       </c>
       <c r="P36">
-        <v>0.1217453208692037</v>
+        <v>0.1332541182661091</v>
       </c>
       <c r="Q36">
-        <v>43.83749379894377</v>
+        <v>46.789859895975</v>
       </c>
       <c r="R36">
-        <v>43.83749379894377</v>
+        <v>280.73915937585</v>
       </c>
       <c r="S36">
-        <v>0.008450781760519948</v>
+        <v>0.006891081920432393</v>
       </c>
       <c r="T36">
-        <v>0.008450781760519948</v>
+        <v>0.005484432244091022</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H37">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I37">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J37">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.42182906731576</v>
+        <v>1.8364275</v>
       </c>
       <c r="N37">
-        <v>1.42182906731576</v>
+        <v>3.672855</v>
       </c>
       <c r="O37">
-        <v>0.2047502223427123</v>
+        <v>0.2406920645156217</v>
       </c>
       <c r="P37">
-        <v>0.2047502223427123</v>
+        <v>0.1854730912005122</v>
       </c>
       <c r="Q37">
-        <v>73.72551600503837</v>
+        <v>97.68846244303124</v>
       </c>
       <c r="R37">
-        <v>73.72551600503837</v>
+        <v>390.753849772125</v>
       </c>
       <c r="S37">
-        <v>0.01421245130476212</v>
+        <v>0.01438728816185065</v>
       </c>
       <c r="T37">
-        <v>0.01421245130476212</v>
+        <v>0.007633644761056779</v>
       </c>
     </row>
   </sheetData>
